--- a/service-system/src/main/resources/static/桥梁保护层厚度鉴定表.xlsx
+++ b/service-system/src/main/resources/static/桥梁保护层厚度鉴定表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273B788B-4490-4B01-ADE0-70E2A25441EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="3915"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="保护层" sheetId="7" r:id="rId1"/>
@@ -120,12 +126,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -378,168 +384,150 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,14 +540,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -597,7 +588,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -669,7 +660,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -842,14 +833,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.625" style="6" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="8" customWidth="1"/>
@@ -868,160 +859,160 @@
     <col min="28" max="16384" width="9" style="6" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="41.25" customHeight="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-    </row>
-    <row r="2" spans="1:18" s="7" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+    </row>
+    <row r="2" spans="1:18" s="7" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="56" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="56"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-    </row>
-    <row r="3" spans="1:18" s="7" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A3" s="50" t="s">
+      <c r="O2" s="50"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+    </row>
+    <row r="3" spans="1:18" s="7" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="55" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="55"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-    </row>
-    <row r="4" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A4" s="36" t="s">
+      <c r="O3" s="49"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+    </row>
+    <row r="4" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="43" t="s">
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="45" t="s">
+      <c r="Q4" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="R4" s="46"/>
-    </row>
-    <row r="5" spans="1:18" ht="25.5" customHeight="1">
-      <c r="A5" s="37"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="47" t="s">
+      <c r="R4" s="41"/>
+    </row>
+    <row r="5" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="32"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="51" t="s">
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="51" t="s">
+      <c r="R5" s="46" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="25.5" customHeight="1">
-      <c r="A6" s="38"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="11">
+    <row r="6" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="33"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="1">
         <v>2</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="1">
         <v>3</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="1">
         <v>4</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="1">
         <v>5</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="1">
         <v>6</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="1">
         <v>7</v>
       </c>
       <c r="L6" s="1">
@@ -1030,612 +1021,612 @@
       <c r="M6" s="1">
         <v>9</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="53"/>
-    </row>
-    <row r="7" spans="1:18" ht="18" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="22"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="48"/>
+    </row>
+    <row r="7" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="20"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="15"/>
+      <c r="O7" s="1"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="17"/>
-    </row>
-    <row r="8" spans="1:18" ht="18" customHeight="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="22"/>
+      <c r="R7" s="14"/>
+    </row>
+    <row r="8" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="21"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="1"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="14"/>
-    </row>
-    <row r="9" spans="1:18" ht="18" customHeight="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="22"/>
+      <c r="R8" s="12"/>
+    </row>
+    <row r="9" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="21"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="1"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="18" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="22"/>
+    <row r="10" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="21"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="1"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="18" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="22"/>
+    <row r="11" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="21"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="1"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="18" customHeight="1">
-      <c r="A12" s="26"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="22"/>
+    <row r="12" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="21"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="13"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="18" customHeight="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="22"/>
+    <row r="13" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="21"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="19"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="1"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="15"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="1"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="18" customHeight="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="22"/>
+    <row r="14" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="21"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="19"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="1"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="15"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="1"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="18" customHeight="1">
-      <c r="A15" s="26"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="22"/>
+    <row r="15" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="21"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="19"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="1"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="15"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="1"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="18" customHeight="1">
-      <c r="A16" s="26"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="22"/>
+    <row r="16" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="21"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="19"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="1"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="15"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="1"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="18" customHeight="1">
-      <c r="A17" s="26"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="22"/>
+    <row r="17" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="21"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="19"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="1"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="15"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="1"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="18" customHeight="1">
-      <c r="A18" s="26"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="22"/>
+    <row r="18" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="21"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="19"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="1"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="15"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="1"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="18" customHeight="1">
-      <c r="A19" s="26"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="22"/>
+    <row r="19" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="21"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="1"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="18" customHeight="1">
-      <c r="A20" s="26"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="22"/>
+    <row r="20" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="21"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="1"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="18" customHeight="1">
-      <c r="A21" s="26"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="22"/>
+    <row r="21" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="21"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="1"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="18" customHeight="1">
-      <c r="A22" s="26"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="22"/>
+    <row r="22" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="21"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="1"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="18" customHeight="1">
-      <c r="A23" s="26"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="22"/>
+    <row r="23" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="21"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="1"/>
       <c r="P23" s="10"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="18" customHeight="1">
-      <c r="A24" s="26"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="22"/>
+    <row r="24" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="21"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="13"/>
       <c r="P24" s="10"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="18" customHeight="1">
-      <c r="A25" s="26"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="22"/>
+    <row r="25" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="21"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="19"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="1"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="15"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="1"/>
       <c r="P25" s="10"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="18" customHeight="1">
-      <c r="A26" s="26"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="22"/>
+    <row r="26" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="21"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="19"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="1"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="15"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="1"/>
       <c r="P26" s="10"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="18" customHeight="1">
-      <c r="A27" s="26"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="22"/>
+    <row r="27" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="21"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="19"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="1"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="15"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="1"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="18" customHeight="1">
-      <c r="A28" s="26"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="22"/>
+    <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="21"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="19"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="1"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="15"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="1"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="18" customHeight="1">
-      <c r="A29" s="26"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="22"/>
+    <row r="29" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="21"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="19"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="1"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="15"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="1"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="18" customHeight="1">
-      <c r="A30" s="26"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="22"/>
+    <row r="30" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="21"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="19"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="1"/>
       <c r="L30" s="5"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="15"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="1"/>
       <c r="P30" s="10"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="18" customHeight="1">
-      <c r="A31" s="26"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="22"/>
+    <row r="31" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="21"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="1"/>
       <c r="P31" s="10"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="18" customHeight="1">
-      <c r="A32" s="26"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="22"/>
+    <row r="32" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="21"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="1"/>
       <c r="P32" s="10"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="18" customHeight="1">
-      <c r="A33" s="26"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="22"/>
+    <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="21"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="1"/>
       <c r="P33" s="10"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="18" customHeight="1">
-      <c r="A34" s="26"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="22"/>
+    <row r="34" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="21"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="1"/>
       <c r="P34" s="10"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="18" customHeight="1">
-      <c r="A35" s="26"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="22"/>
+    <row r="35" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="21"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="1"/>
       <c r="P35" s="10"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="18" customHeight="1">
-      <c r="A36" s="27"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="22"/>
+    <row r="36" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="22"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="1"/>
       <c r="P36" s="10"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="4"/>
@@ -1672,11 +1663,9 @@
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.59055118110236227" bottom="0.78740157480314965" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C
-陕西交建公路工程试验检测有限公司&amp;R
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R
 第&amp;P页共&amp;N页</oddHeader>
     <oddFooter xml:space="preserve">&amp;L
-&amp;C检测：                                   复核：             
 &amp;R
                                             </oddFooter>
   </headerFooter>
